--- a/data/trans_dic/P32E$amigos_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1026,7 +1026,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$amigos_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Edad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1028397006324197</v>
+        <v>0.1097090530667689</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09602781512312593</v>
+        <v>0.07709811720239394</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1593312323861552</v>
+        <v>0.1568787248698219</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.653191716249357</v>
+        <v>0.6448170474152121</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6779772554208304</v>
+        <v>0.6565863420101894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5775110359365679</v>
+        <v>0.5933062566590378</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.4011079168277044</v>
+        <v>0.4011079168277045</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.3403723497395461</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1749417282638339</v>
+        <v>0.1734278315178047</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08728611323780291</v>
+        <v>0.09244142303662062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2030339360097974</v>
+        <v>0.2116121721041467</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6786165119177578</v>
+        <v>0.6593638707537901</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.646126781389509</v>
+        <v>0.6451147674333769</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5657159307514722</v>
+        <v>0.5620537275464356</v>
       </c>
     </row>
     <row r="10">
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07040447267142751</v>
+        <v>0.07247695901202313</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.06020854889100006</v>
+        <v>0.06173537622037015</v>
       </c>
     </row>
     <row r="12">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3768223025813577</v>
+        <v>0.3583573118155697</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.3096645773271391</v>
+        <v>0.3049954461067763</v>
       </c>
     </row>
     <row r="13">
@@ -731,7 +731,7 @@
         <v>0.1921784694346266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.1742588255603762</v>
+        <v>0.1742588255603761</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06537521590989183</v>
+        <v>0.06382132390613139</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05844878158485348</v>
+        <v>0.06046872536722337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07658542587598277</v>
+        <v>0.08342773488888044</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3490543450148215</v>
+        <v>0.3538446062557621</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4425662310594109</v>
+        <v>0.4671907850483039</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.303904449512952</v>
+        <v>0.3012112502069436</v>
       </c>
     </row>
     <row r="16">
@@ -783,7 +783,7 @@
         <v>0.1133376885249108</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1083042603251055</v>
+        <v>0.1083042603251054</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.112209828937612</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0361232732024778</v>
+        <v>0.03393276006793691</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03083055108591566</v>
+        <v>0.02984738578831632</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2972305992573755</v>
+        <v>0.2771279588312179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4494266205039751</v>
+        <v>0.4680316120090813</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.237615944744863</v>
+        <v>0.256552790635972</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2313878476367979</v>
+        <v>0.2313878476367978</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.1580786348464248</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0652889170076721</v>
+        <v>0.06252043904404118</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07946356525427868</v>
+        <v>0.08110548592451974</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4729474115621833</v>
+        <v>0.4594420726837714</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6859088518053892</v>
+        <v>0.6377789288218221</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.425646219332292</v>
+        <v>0.4107758691586548</v>
       </c>
     </row>
     <row r="22">
@@ -939,7 +939,7 @@
         <v>0.2302954889663085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2345426558365788</v>
+        <v>0.2345426558365789</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1339826548733907</v>
+        <v>0.12863137435468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1698232694609911</v>
+        <v>0.1727863487355024</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3657872226734415</v>
+        <v>0.3710113888716917</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3103814188188403</v>
+        <v>0.3094078430650751</v>
       </c>
     </row>
     <row r="28">
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3039</v>
+        <v>3242</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1725</v>
+        <v>1385</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7570</v>
+        <v>7454</v>
       </c>
     </row>
     <row r="7">
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19303</v>
+        <v>19056</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12177</v>
+        <v>11793</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27439</v>
+        <v>28190</v>
       </c>
     </row>
     <row r="8">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4885</v>
+        <v>4843</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1394</v>
+        <v>1476</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8912</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="11">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18950</v>
+        <v>18412</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10320</v>
+        <v>10304</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24833</v>
+        <v>24672</v>
       </c>
     </row>
     <row r="12">
@@ -1262,11 +1262,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2090</v>
+        <v>2151</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>2184</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="15">
@@ -1277,11 +1277,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11186</v>
+        <v>10637</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>11233</v>
+        <v>11063</v>
       </c>
     </row>
     <row r="16">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1992</v>
+        <v>1945</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3156</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="19">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10635</v>
+        <v>10781</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>4752</v>
+        <v>5016</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12522</v>
+        <v>12411</v>
       </c>
     </row>
     <row r="20">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>840</v>
+        <v>789</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>923</v>
+        <v>894</v>
       </c>
     </row>
     <row r="23">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6908</v>
+        <v>6440</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>3016</v>
+        <v>3141</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>7117</v>
+        <v>7684</v>
       </c>
     </row>
     <row r="24">
@@ -1474,13 +1474,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1456</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="27">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6844</v>
+        <v>6649</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2639</v>
+        <v>2454</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7797</v>
+        <v>7525</v>
       </c>
     </row>
     <row r="28">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>8600</v>
+        <v>8256</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>38324</v>
+        <v>38992</v>
       </c>
     </row>
     <row r="35">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>23478</v>
+        <v>23814</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>70043</v>
+        <v>69823</v>
       </c>
     </row>
     <row r="36">
